--- a/BackTest/2020-01-26 BackTest XRP.xlsx
+++ b/BackTest/2020-01-26 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-478631.3929243899</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-478631.3929243899</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-466810.6613243899</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-475983.7746243899</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-492923.8473243899</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-494269.8043243899</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-448920.8712243899</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-456879.0802243899</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-477363.9953243898</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-477273.8088243898</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-477273.8088243898</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-567289.9975243898</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-546344.9476032797</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-547882.5314032797</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-547882.5314032797</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-548041.7589032798</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-548041.7589032798</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-548041.7589032798</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-558041.7589032798</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-588527.2861032798</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-572727.9155032798</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-580027.9155032798</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-580027.9155032798</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-580027.9155032798</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-580027.9155032798</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-541669.1618032798</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-587618.3357032798</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-587615.8357032798</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-604384.5944032798</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-637861.1464032799</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-637476.0089032799</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-637476.0089032799</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-637476.0089032799</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-683463.2913418899</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-683463.2913418899</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-683463.2913418899</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-650214.0478418899</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-650215.9878418898</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-650215.9878418898</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-641857.9822418898</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-641854.4053418898</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-643032.7423418899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-642630.7423418899</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-642511.1146418899</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-644766.1465418899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-644766.1465418899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-645268.7556418899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-645268.7556418899</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-645268.7556418899</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-645268.7556418899</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-676106.5909418899</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-643056.5204536399</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-643482.3819536399</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-617753.2510536399</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-625399.0035536399</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-699967.0152842199</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-462025.6795842199</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-462025.6795842199</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-157358.59658422</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-361797.28651878</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-366547.8349642701</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-366547.8349642701</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-378555.0759642701</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-370640.2557642701</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-383027.7386642701</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-383027.7386642701</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-383027.7386642701</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-383027.7386642701</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-383027.7386642701</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-383038.7386642701</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-383038.7386642701</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-383038.7386642701</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-388045.6063642701</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-387657.0966642702</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-387618.5312959802</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-388418.5312959802</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-387256.6471959801</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-387756.6471959801</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-392574.5840959801</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-431109.2282959801</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-431207.9082959801</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-431207.9082959801</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-431207.9082959801</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-427501.2316959801</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-408553.78864377</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-399363.85624377</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-397902.1849437701</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-398962.54484377</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-398962.54484377</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-423715.2109437701</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-275538.8737437701</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-246718.3217437701</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-250365.2129437701</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-245885.2129437701</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-248150.6897437701</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-143459.4665437701</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-141775.9648437701</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-141796.8652437701</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-147644.8661437701</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-156963.9738437701</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-156963.9738437701</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-156913.9738437701</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-156913.9738437701</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-156813.9738437701</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-156813.9738437701</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-156812.0438437701</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-117883.0108437701</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-117753.6499437701</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-19646.22304377014</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-19646.22304377014</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-79189.49224377013</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-75036.21444377014</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-75036.21444377014</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-80549.36424377013</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-80549.36424377013</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-80561.48514377013</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-77984.56754377013</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-130698.2034437701</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-130698.2034437701</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-205356.6283437701</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-205356.6283437701</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-210958.9304437701</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-209617.9304437701</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-209753.7904437701</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-209753.7904437701</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-209934.7904437701</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-209475.9882437701</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-209730.8173437701</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-229397.2265437701</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-241654.3346437701</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-241654.3346437701</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-784152.3687437702</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-473154.1368437702</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-414937.7475437702</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-414887.7475437702</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-440620.8552437702</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-440620.8552437702</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-434794.1707437702</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-428819.3248437702</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-430431.3425869702</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-430431.3425869702</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-426846.4247869702</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-431818.3526869702</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-447207.2267869702</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-447207.2267869702</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-437207.2267869702</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-430305.6593869702</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-430305.6593869702</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-436290.9274869702</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-436290.9274869702</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-426741.9501869702</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-421993.6310869702</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-441214.7848869702</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-407207.8864869702</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-409595.7357869702</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-393093.4138869702</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-422774.6750869702</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-422774.6750869702</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-406285.4775561102</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-406285.4775561102</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-408383.5815561102</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-402938.7806561102</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-402938.7806561102</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-406229.2911561102</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-403908.3806561102</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-409873.6985561102</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-409873.6985561102</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-408796.7508561102</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-408796.7508561102</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-385735.8415561102</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-381916.6107868802</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-386914.7257868802</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-386914.7257868802</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-18943.0961868802</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-174928.9861868802</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-174928.9861868802</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-174928.9861868802</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-175663.1709868802</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-185974.0919868802</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-196491.4291868802</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-199303.5593868802</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-197816.1211868802</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-198965.4444868802</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-198965.4444868802</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-198965.4444868802</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-198965.4444868802</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-199169.0231868802</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-199169.0231868802</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-200939.2912868802</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-199346.4397868802</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-199346.4397868802</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-250853.4577868802</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-843589.8203992902</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-874069.9134992901</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-857398.9554992901</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-984875.9163992901</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1054435.47769929</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1054435.47769929</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1061278.87629929</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14014,10 +14014,14 @@
         <v>-1388039.37506474</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="J413" t="n">
+        <v>253.8</v>
+      </c>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
@@ -14050,8 +14054,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14083,8 +14093,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14179,7 +14195,7 @@
         <v>-1392075.18926474</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>254.3</v>
@@ -14329,11 +14345,9 @@
         <v>-1502716.53156474</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>253.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14368,9 +14382,11 @@
         <v>-1494511.25896474</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>253.3</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14405,9 +14421,11 @@
         <v>-1506159.79572322</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>253.9</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14442,9 +14460,11 @@
         <v>-1506159.79572322</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>253.4</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14479,7 +14499,7 @@
         <v>-1506159.79572322</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>253.4</v>
@@ -14518,7 +14538,7 @@
         <v>-1506109.79572322</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>253.4</v>
@@ -14557,7 +14577,7 @@
         <v>-1507407.11052322</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>253.7</v>
@@ -14596,7 +14616,7 @@
         <v>-1489685.95336205</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>253.4</v>
@@ -14635,7 +14655,7 @@
         <v>-1489685.95336205</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>253.7</v>
@@ -14674,7 +14694,7 @@
         <v>-1500571.137662051</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>253.7</v>
@@ -14713,7 +14733,7 @@
         <v>-1513640.045270061</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>253.4</v>
@@ -14752,7 +14772,7 @@
         <v>-1493794.367436101</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>253.3</v>
@@ -14791,7 +14811,7 @@
         <v>-1493794.367436101</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>253.7</v>
@@ -14830,7 +14850,7 @@
         <v>-1520060.202036101</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>253.7</v>
@@ -14869,7 +14889,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>253.3</v>
@@ -14908,7 +14928,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>254</v>
@@ -14947,7 +14967,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>254</v>
@@ -14986,7 +15006,7 @@
         <v>-1517405.700054051</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>254</v>
@@ -15025,7 +15045,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>254.1</v>
@@ -15064,7 +15084,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>254</v>
@@ -15103,7 +15123,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>254</v>
@@ -15142,7 +15162,7 @@
         <v>-1484431.962354051</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>254</v>
@@ -15181,7 +15201,7 @@
         <v>-1331225.142454051</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>254.2</v>
@@ -15220,7 +15240,7 @@
         <v>-1330912.605140621</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>254.3</v>
@@ -15259,7 +15279,7 @@
         <v>-1335912.170740621</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>254.6</v>
@@ -15298,11 +15318,9 @@
         <v>-1335514.171526791</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>254.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15337,11 +15355,9 @@
         <v>-1335514.171526791</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>254.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15413,9 +15429,11 @@
         <v>-1346960.806426791</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15487,11 +15505,9 @@
         <v>-1349264.035326791</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16488,9 +16504,11 @@
         <v>-1303870.66956182</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>254.5</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -18967,9 +18985,11 @@
         <v>-1617353.53225405</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19004,9 +19024,11 @@
         <v>-1617350.53975405</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19078,7 +19100,7 @@
         <v>-1606120.18031822</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>254.8</v>
@@ -20412,9 +20434,11 @@
         <v>-1798242.17959888</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20782,9 +20806,11 @@
         <v>-1821407.24276163</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>254.5</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20819,9 +20845,11 @@
         <v>-1821407.24276163</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>254.5</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20856,9 +20884,11 @@
         <v>-1821417.24276163</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>254.5</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20893,7 +20923,7 @@
         <v>-1821417.24276163</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>254.4</v>
@@ -20932,7 +20962,7 @@
         <v>-1821417.24276163</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>254.4</v>
@@ -20971,9 +21001,11 @@
         <v>-1821417.24276163</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21008,9 +21040,11 @@
         <v>-1821417.24276163</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21045,9 +21079,11 @@
         <v>-1824075.85936163</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21082,9 +21118,11 @@
         <v>-1856705.17826163</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>254.3</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21119,9 +21157,11 @@
         <v>-1847779.96706163</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>254</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21156,9 +21196,11 @@
         <v>-1843037.03968553</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21193,9 +21235,11 @@
         <v>-1843037.03968553</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21230,9 +21274,11 @@
         <v>-1841761.309751</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21267,9 +21313,11 @@
         <v>-1841761.309751</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>254.8</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21378,9 +21426,11 @@
         <v>-1769565.431351</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>254.3</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21526,9 +21576,11 @@
         <v>-1774506.504651</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21600,9 +21652,11 @@
         <v>-1780355.560951</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21674,9 +21728,11 @@
         <v>-1789621.90651851</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21711,9 +21767,11 @@
         <v>-1789691.90651851</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>254.3</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21748,9 +21806,11 @@
         <v>-1785410.62961851</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21785,9 +21845,11 @@
         <v>-1866102.14411851</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>254.3</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21822,9 +21884,11 @@
         <v>-1866102.14411851</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21859,9 +21923,11 @@
         <v>-1853606.003561</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21933,9 +21999,11 @@
         <v>-1857834.62100012</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>254.6</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21970,9 +22038,11 @@
         <v>-1866150.47140012</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>254.6</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -22007,9 +22077,11 @@
         <v>-1886678.91600012</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>254.4</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22044,9 +22116,11 @@
         <v>-1867288.52014188</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>254.3</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22081,9 +22155,11 @@
         <v>-1827492.23444188</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>254.8</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22118,9 +22194,11 @@
         <v>-1827492.23444188</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>255</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22303,9 +22381,11 @@
         <v>-1830835.75044188</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>254.6</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -24190,9 +24270,11 @@
         <v>-1745810.123623471</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>255.3</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -24227,9 +24309,11 @@
         <v>-1745614.895723471</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>255.4</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -24264,9 +24348,11 @@
         <v>-1745614.895723471</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>255.5</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24301,9 +24387,11 @@
         <v>-1742201.481423471</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>255.5</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24338,9 +24426,11 @@
         <v>-1757975.588623471</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>255.7</v>
+      </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24375,9 +24465,11 @@
         <v>-1751613.728023471</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>255.6</v>
+      </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -28186,7 +28278,7 @@
         <v>-756893.700689221</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28223,7 +28315,7 @@
         <v>-802596.3780892211</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28260,7 +28352,7 @@
         <v>-857902.4771892211</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28297,7 +28389,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28334,7 +28426,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28371,7 +28463,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28408,7 +28500,7 @@
         <v>-854852.6711892211</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28445,7 +28537,7 @@
         <v>-874062.7833892211</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28482,7 +28574,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28519,7 +28611,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28778,7 +28870,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28815,7 +28907,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28926,7 +29018,7 @@
         <v>-872669.693289221</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29074,7 +29166,7 @@
         <v>-819291.6386892211</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29111,7 +29203,7 @@
         <v>-796528.2161892211</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29222,7 +29314,7 @@
         <v>-797124.3187892211</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -38339,6 +38431,6 @@
       <c r="M1069" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>